--- a/hm_model/apcd_removal_efficiency_extended.xlsx
+++ b/hm_model/apcd_removal_efficiency_extended.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangli/Desktop/hiwi_esd/Air pollution project/Own_power_plant_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangli/esd_hiwi/hm_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C3">
-        <v>97.2</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>99</v>
@@ -517,7 +517,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="0">100-(100-C3)*2</f>
-        <v>94.4</v>
+        <v>90</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="1">100-(100-F3)*2</f>
@@ -535,7 +535,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C4">
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="D4">
         <v>97.6</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -575,7 +575,7 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="D5">
         <v>95.1</v>
@@ -597,7 +597,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
